--- a/scraper/_export/summary.xlsx
+++ b/scraper/_export/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="275">
   <si>
     <t>site</t>
   </si>
@@ -133,633 +133,642 @@
     <t>ИДЭВХТЭЙ</t>
   </si>
   <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.tdbm.mn/mn/news/brittobeleg</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080651_62_d480f558.png</t>
+  </si>
+  <si>
+    <t>koreanair</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/04/250429_SELCXA-ULNSM-웹-배너_1920x280px.jpg</t>
+  </si>
+  <si>
+    <t>https://www.koreanair.com/</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080659_6_5d66d2ef.png</t>
+  </si>
+  <si>
+    <t>golomtbank</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/09/300-250-1.png</t>
+  </si>
+  <si>
+    <t>https://www.golomtbank.com/%D1%85%D0%B0%D0%B4%D0%B3%D0%B0%D0%BB%D0%B0%D0%BC%D0%B6%D1%82%D0%B0%D0%B9-%D0%B0%D1%8F%D0%BB%D0%B0%D0%BB-1-3</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080659_20_882d8764.png</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>large,std_size,ad_word</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/news-APT.jpg</t>
+  </si>
+  <si>
+    <t>https://news.mn/#</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080660_63_a5e6d8af.png</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/2.-News-copy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.khanbank.com/personal/news/intelligence/7719/?fbclid=IwZXh0bgNhZW0CMTAAYnJpZBExUVIxWXpUS1BzN0ZKazV2VgEez-kHbFeNbjSn0eGOkDsapuYRMlsOBPPLT9ZyNtn-whQeUttGL-SjQF3q6lA_aem_KpzcYpYpcIqXK05RXNLZcw</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080676_21_3e6134cc.png</t>
+  </si>
+  <si>
+    <t>bolor-toli.com</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>large,ad_host/path,external_click</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/39/176000355613.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=9d7e5e05b41a98fae00c9c5dd2374b6c</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\bolortoli_1760080692_0_768ad86f.png</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/175946518913.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=2b2e518b872b6c6503324cb4eb3ff3b1</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\bolortoli_1760080700_0_56ee9faf.png</t>
+  </si>
+  <si>
+    <t>gogo.mn</t>
+  </si>
+  <si>
+    <t>gogo</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>large,ad_host/path</t>
+  </si>
+  <si>
+    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/2b62cea9-f6f6-473f-a714-9558d3c805ed/68e61b64d45433074edd6424_compressed.webp</t>
+  </si>
+  <si>
+    <t>https://gogo.mn</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760080650_26_05c3810b.png</t>
+  </si>
+  <si>
+    <t>iframe,large,std_size,ad_host/path,ad_word</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/7dbe8f1f-2042-4ec2-a583-ae72994d07d4?config=eyJvZmZzZXQiOjIsImFzcGVjdFJhdGlvIjoiYXV0byIsImxheW91dCI6ImNhcm91c2VsIiwibG9hZE1vZGUiOiJsYXp5IiwidmVydGljYWxTbGlkZXNUb1Nob3ciOjMsInNob3dJbmRpY2F0b3JEb3RzIjp0cnVlLCJzaG93RHluYW1pY1N0YXRlT25seSI6ZmFsc2UsInZpZXdwb3J0RnJhY3Rpb24iOjEsInNsaWRlU3BhY2luZyI6MCwic2xpZGVJbWdCb3JkZXJSYWRpdXMiOjAsImR5bmFtaWNTdGF0ZUR1cmF0aW9uIjo1LCJsYXp5TG9hZFNwaW5uZXJDb2xvciI6IiMxRDRCOEYiLCJpbmRpY2F0b3JEb3RTaXplIjo4LCJpbmRpY2F0b3JEb3RDb2xvciI6IiMxRDRCOEYiLCJlbmxhcmdlRmFjdG9yIjoxZS0xMCwiZW5sYXJnZUNlbnRlckl0ZW0iOnRydWUsInNob3dWaWRlb0NvbnRyb2xzIjp0cnVlLCJhdXRvc3RhcnQiOnRydWV9</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760080651_35_020787f6.png</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>iframe,large,ad_host/path,ad_word</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/0dd86156-4bad-4edb-b3d3-899fccc948ff?config=eyJvZmZzZXQiOjcsImFzcGVjdFJhdGlvIjoiYXV0byIsImxheW91dCI6ImNhcm91c2VsIiwibG9hZE1vZGUiOiJsYXp5IiwidmVydGljYWxTbGlkZXNUb1Nob3ciOjMsInNob3dJbmRpY2F0b3JEb3RzIjp0cnVlLCJzaG93RHluYW1pY1N0YXRlT25seSI6ZmFsc2UsInZpZXdwb3J0RnJhY3Rpb24iOjEsInNsaWRlU3BhY2luZyI6MCwic2xpZGVJbWdCb3JkZXJSYWRpdXMiOjAsImR5bmFtaWNTdGF0ZUR1cmF0aW9uIjo1LCJsYXp5TG9hZFNwaW5uZXJDb2xvciI6IiMxRDRCOEYiLCJpbmRpY2F0b3JEb3RTaXplIjo4LCJpbmRpY2F0b3JEb3RDb2xvciI6IiMxRDRCOEYiLCJlbmxhcmdlRmFjdG9yIjoxZS0xMCwiZW5sYXJnZUNlbnRlckl0ZW0iOnRydWUsInNob3dWaWRlb0NvbnRyb2xzIjp0cnVlLCJhdXRvc3RhcnQiOnRydWV9</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760080653_140_e2d53d38.png</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>iframe,large,ad_host/path,ad_word,wide_ratio</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/e0118a9c-8eb3-4dbd-8adb-661ecb6eccd7?config=eyJvZmZzZXQiOjgsImFzcGVjdFJhdGlvIjoiYXV0byIsImxheW91dCI6ImNhcm91c2VsIiwibG9hZE1vZGUiOiJsYXp5IiwidmVydGljYWxTbGlkZXNUb1Nob3ciOjMsInNob3dJbmRpY2F0b3JEb3RzIjp0cnVlLCJzaG93RHluYW1pY1N0YXRlT25seSI6ZmFsc2UsInZpZXdwb3J0RnJhY3Rpb24iOjEsInNsaWRlU3BhY2luZyI6MCwic2xpZGVJbWdCb3JkZXJSYWRpdXMiOjAsImR5bmFtaWNTdGF0ZUR1cmF0aW9uIjo1LCJsYXp5TG9hZFNwaW5uZXJDb2xvciI6IiMxRDRCOEYiLCJpbmRpY2F0b3JEb3RTaXplIjo4LCJpbmRpY2F0b3JEb3RDb2xvciI6IiMxRDRCOEYiLCJlbmxhcmdlRmFjdG9yIjoxZS0xMCwiZW5sYXJnZUNlbnRlckl0ZW0iOnRydWUsInNob3dWaWRlb0NvbnRyb2xzIjp0cnVlLCJhdXRvc3RhcnQiOnRydWV9</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760080654_155_b1382d91.png</t>
+  </si>
+  <si>
+    <t>caak.mn</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>large,external_click</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBM3hFQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--e11378bd567468b48585649a5262a9ca87dcba0b/1900%20300%20caak,%20caaknews.png</t>
+  </si>
+  <si>
+    <t>https://golomtbank.com/news/48459</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\caak_1760080740_0_2ff69028.png</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBelJiQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--359458763e484d9494057d01d3c8edd16cd25919/khanbank%20a2-10..jpg</t>
+  </si>
+  <si>
+    <t>https://www.khanbank.com/personal/news/intelligence/7719/</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\caak_1760080773_1_f46916e8.png</t>
+  </si>
+  <si>
+    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/53d875ae-f203-4559-b5e2-80c8f62f3a75/68e8b3a21ab3b74ec942173b_compressed.webp</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760081327_26_740be652.png</t>
+  </si>
+  <si>
+    <t>ikon.mn</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>banner_note,large,external_click</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/10/9/18289/1.1_Pop-up_976x350.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gnextmongolia</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\ikon_1760082316_1_3db16f02.png</t>
+  </si>
+  <si>
+    <t>large,ad_host/path,ad_word</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/dyson-bpo3-banner-1-1-250x156.jpg</t>
+  </si>
+  <si>
+    <t>https://news.mn/r/2827758/</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760085318_18_0b213f87.png</t>
+  </si>
+  <si>
+    <t>lemonpress.mn</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>iframe,large,ad_host/path,external_click,ad_word</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/fdfc95aa-90ae-4871-a1b1-0428fdd37f0e</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760087886_0_f3725195.png</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/0b4c7ee7-ef27-4cef-b10a-79eb0f307153</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760087886_1_11f86d75.png</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/ab348d23-3f49-4894-a4d5-d3f741b8e361</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760087886_3_f6335426.png</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/625702c6-8bde-4f7f-b3c3-5fc92c5f5f99</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760087886_4_50b5be95.png</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/b2e2476b-0ff2-43df-8a08-38ba92630379?config=eyJvZmZzZXQiOjMsImFzcGVjdFJhdGlvIjoiYXV0byIsImxheW91dCI6ImNhcm91c2VsIiwibG9hZE1vZGUiOiJsYXp5IiwidmVydGljYWxTbGlkZXNUb1Nob3ciOjMsInNob3dJbmRpY2F0b3JEb3RzIjp0cnVlLCJzaG93RHluYW1pY1N0YXRlT25seSI6ZmFsc2UsInZpZXdwb3J0RnJhY3Rpb24iOjEsInNsaWRlU3BhY2luZyI6MCwic2xpZGVJbWdCb3JkZXJSYWRpdXMiOjAsImR5bmFtaWNTdGF0ZUR1cmF0aW9uIjo1LCJsYXp5TG9hZFNwaW5uZXJDb2xvciI6IiMxRDRCOEYiLCJpbmRpY2F0b3JEb3RTaXplIjo4LCJpbmRpY2F0b3JEb3RDb2xvciI6IiMxRDRCOEYiLCJlbmxhcmdlRmFjdG9yIjoxZS0xMCwiZW5sYXJnZUNlbnRlckl0ZW0iOnRydWUsInNob3dWaWRlb0NvbnRyb2xzIjp0cnVlLCJhdXRvc3RhcnQiOnRydWV9</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760089590_259_27bdb04b.png</t>
+  </si>
+  <si>
+    <t>https://exchange.boost.mn/ad/web/0538cc0c-08dd-4b5e-8d1c-632ef1c3355d</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760089668_2_a8f35df3.png</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/175928855113.jpg</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=472fbe2449e91fb37c63355df8e357c2</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\bolortoli_1760090828_0_9ca83f2f.png</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/175980747313.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=a6285c5d1e1d47e519dc9bde294ce12b</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-10\bolortoli_1760090836_0_1837003e.png</t>
+  </si>
+  <si>
+    <t>bolor</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/176027585813.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=deb76b39de55a70335c1cd582136748c</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-13\bolortoli_1760314005_0_36ff83dc.png</t>
+  </si>
+  <si>
+    <t>zangia</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/10/7/18272/IMG_2801.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.zangia.mn/</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-13\ikon_1760326755_1_146d200e.png</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>large,std_size,ad_host/path,ad_word</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/News.mn-banner--scaled.jpg</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-13\news_1760326750_5_3d36b27e.png</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/9/30/18261/560_400__2_.png</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-13\ikon_1760328045_1_142570a2.png</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/10/6/18271/IMG_2795.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Scraper\banner_screenshots\2025-10-13\ikon_1760328055_2_b2132167.png</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/10/13/18295/ikon_1360.200.png</t>
+  </si>
+  <si>
+    <t>https://zero.mn/film/9344</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-13\ikon_1760344159_1_40750436.png</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/News.mn-banner-1-1-250x156.jpg</t>
+  </si>
+  <si>
+    <t>https://news.mn/r/2828099/</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-13\news_1760344153_10_40054faf.png</t>
+  </si>
+  <si>
+    <t>univision</t>
+  </si>
+  <si>
+    <t>2025-10-14</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNnhkQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--8b45fca71b3b8335e3a31eb643016f9f24a4c427/07.jpg</t>
+  </si>
+  <si>
+    <t>https://univision.mn/promotion/980</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-14\caak_1760409633_1_4f5f05d1.png</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/976d98c9-7e04-4d5a-a670-c993e6ed60a2/68c7c5c75354a679a0e142f5_compressed.webp</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-15\gogo_1760526734_26_29dfac90.png</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNjVkQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--a642daa4c27bb3488d58f7f5888858878a77eb95/06.jpg</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-15\caak_1760527007_0_e5b05dac.png</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/10/16/18305/ikon_35.png</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-17\ikon_1760672876_1_769a9a75.png</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/FB-cover-banner-___-250x156.png</t>
+  </si>
+  <si>
+    <t>https://news.mn/r/2829024/</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-17\news_1760672859_17_edbfa711.png</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/news-35th.png</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-17\news_1760672894_22_5adbd938.png</t>
+  </si>
+  <si>
+    <t>unitel</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBMUJnQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--372d47710d5424b22790ba532e79278cb8820a38/caak%201900x300.png</t>
+  </si>
+  <si>
+    <t>https://www.unitel.mn/unitel/promotion/987</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-17\caak_1760672947_0_8a26fc62.png</t>
+  </si>
+  <si>
+    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/f8bbae5a-2843-4494-b829-9c8bc67e8208/68f5a7daf10b6ad7a7cc6989_compressed.webp</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-20\gogo_1760953886_26_f6d4453f.png</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNlYyQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--874b714b0d974c78d6bef3a81fa4e9e03f2251ac/looktv%20a1%2010%20sar.jpg</t>
+  </si>
+  <si>
+    <t>http://facebook.com/reel/2053151908835475</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-20\caak_1760953975_0_e49a87fd.png</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/176101706813.jpg</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=b9619fe07489de6d9a73d897ec39856a</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-21\bolortoli_1761019795_0_cc6f2fd0.png</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBN3BkQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--139bc396ae2a75d431f6ae47a64b02430cb290f9/00.jpg</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-21\caak_1761019853_1_4e1feaa8.png</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/10/22/18328/unnamed.png</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-22\ikon_1761120477_2_ca2b2099.png</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNnFQQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--3769282f3690acf0f7fdfc7c98dabff730a3e50c/banner.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/reel/817306938137351</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-27\caak_1761532006_1_26a5d085.png</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/10/23/18329/1._Ikon_560x400.jpg</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-27\ikon_1761545294_2_2df32304.png</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBeWFQQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--bf6db297535f2a010896ac974ced3cda119e2573/khanbank%20a2%2010sars.jpg</t>
+  </si>
+  <si>
+    <t>https://www.khanbank.com/personal/news/intelligence/7775/</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-27\caak_1761545398_2_a0002d05.png</t>
+  </si>
+  <si>
+    <t>ly</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/11/4/18379/560_400__1_.jpg</t>
+  </si>
+  <si>
+    <t>https://bit.ly/tdb-MA2025?fbclid=IwZXh0bgNhZW0CMTAAYnJpZBExZG02Z2xxQUxYR3RSUE5KTAEer-uqbDGwYkFvy8Q08Nj6UxoEgvj2_Q53jpCO5t2osfGSTgbLHZfATIf75-c_aem_xX-j49AXTAqDC-6lnrycwA</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\ikon_1762229148_1_35f79b2d.png</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/10/30/18346/Ikon.mn_280x200__5__copy.png</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\ikon_1762229157_2_2b8e99e4.png</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/IMG_6324-scaled.jpeg</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\news_1762229141_5_167ecfe9.png</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/10/News.mn-300x245-1.png</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\news_1762229173_20_767f822f.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/176187722513.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=d91f9cfe9003d2e218bb1ea8463b72ae</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\bolortoli_1762229206_0_dc08ebf8.png</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>large,external_click,ad_word</t>
+  </si>
+  <si>
+    <t>https://news.mn/wp-content/uploads/2025/11/300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.golomtbank.com/news/50915</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-05\news_1762339164_12_63744233.png</t>
+  </si>
+  <si>
+    <t>looktv</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBN05jQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--bb454c51b42d9dd027e88c70bb0498f1520aa85c/caak.mn.jpg</t>
+  </si>
+  <si>
+    <t>https://looktv.mn/</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-08\caak_1762608737_0_bc800b17.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/176274226013.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=eb8cb59a1bce5f6876df446e41dc5d77</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-10\bolortoli_1762742783_0_1c65920c.png</t>
+  </si>
+  <si>
     <t>2025-11-11</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.tdbm.mn/mn/news/brittobeleg</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080651_62_d480f558.png</t>
-  </si>
-  <si>
-    <t>koreanair</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/04/250429_SELCXA-ULNSM-웹-배너_1920x280px.jpg</t>
-  </si>
-  <si>
-    <t>https://www.koreanair.com/</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080659_6_5d66d2ef.png</t>
-  </si>
-  <si>
-    <t>golomtbank</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/09/300-250-1.png</t>
-  </si>
-  <si>
-    <t>https://www.golomtbank.com/%D1%85%D0%B0%D0%B4%D0%B3%D0%B0%D0%BB%D0%B0%D0%BC%D0%B6%D1%82%D0%B0%D0%B9-%D0%B0%D1%8F%D0%BB%D0%B0%D0%BB-1-3</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080659_20_882d8764.png</t>
-  </si>
-  <si>
-    <t>mn</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>large,std_size,ad_word</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/news-APT.jpg</t>
-  </si>
-  <si>
-    <t>https://news.mn/#</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080660_63_a5e6d8af.png</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/2.-News-copy.jpg</t>
-  </si>
-  <si>
-    <t>https://www.khanbank.com/personal/news/intelligence/7719/?fbclid=IwZXh0bgNhZW0CMTAAYnJpZBExUVIxWXpUS1BzN0ZKazV2VgEez-kHbFeNbjSn0eGOkDsapuYRMlsOBPPLT9ZyNtn-whQeUttGL-SjQF3q6lA_aem_KpzcYpYpcIqXK05RXNLZcw</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760080676_21_3e6134cc.png</t>
-  </si>
-  <si>
-    <t>bolor-toli.com</t>
-  </si>
-  <si>
-    <t>banner</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>large,ad_host/path,external_click</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/files/39/176000355613.png</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/pub/jump?t=9d7e5e05b41a98fae00c9c5dd2374b6c</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\bolortoli_1760080692_0_768ad86f.png</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/files/37/175946518913.png</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/pub/jump?t=2b2e518b872b6c6503324cb4eb3ff3b1</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\bolortoli_1760080700_0_56ee9faf.png</t>
-  </si>
-  <si>
-    <t>gogo.mn</t>
-  </si>
-  <si>
-    <t>gogo</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>large,ad_host/path</t>
-  </si>
-  <si>
-    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/2b62cea9-f6f6-473f-a714-9558d3c805ed/68e61b64d45433074edd6424_compressed.webp</t>
-  </si>
-  <si>
-    <t>https://gogo.mn</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760080650_26_05c3810b.png</t>
-  </si>
-  <si>
-    <t>iframe,large,std_size,ad_host/path,ad_word</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/7dbe8f1f-2042-4ec2-a583-ae72994d07d4?config=eyJvZmZzZXQiOjIsImFzcGVjdFJhdGlvIjoiYXV0byIsImxheW91dCI6ImNhcm91c2VsIiwibG9hZE1vZGUiOiJsYXp5IiwidmVydGljYWxTbGlkZXNUb1Nob3ciOjMsInNob3dJbmRpY2F0b3JEb3RzIjp0cnVlLCJzaG93RHluYW1pY1N0YXRlT25seSI6ZmFsc2UsInZpZXdwb3J0RnJhY3Rpb24iOjEsInNsaWRlU3BhY2luZyI6MCwic2xpZGVJbWdCb3JkZXJSYWRpdXMiOjAsImR5bmFtaWNTdGF0ZUR1cmF0aW9uIjo1LCJsYXp5TG9hZFNwaW5uZXJDb2xvciI6IiMxRDRCOEYiLCJpbmRpY2F0b3JEb3RTaXplIjo4LCJpbmRpY2F0b3JEb3RDb2xvciI6IiMxRDRCOEYiLCJlbmxhcmdlRmFjdG9yIjoxZS0xMCwiZW5sYXJnZUNlbnRlckl0ZW0iOnRydWUsInNob3dWaWRlb0NvbnRyb2xzIjp0cnVlLCJhdXRvc3RhcnQiOnRydWV9</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760080651_35_020787f6.png</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>iframe,large,ad_host/path,ad_word</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/0dd86156-4bad-4edb-b3d3-899fccc948ff?config=eyJvZmZzZXQiOjcsImFzcGVjdFJhdGlvIjoiYXV0byIsImxheW91dCI6ImNhcm91c2VsIiwibG9hZE1vZGUiOiJsYXp5IiwidmVydGljYWxTbGlkZXNUb1Nob3ciOjMsInNob3dJbmRpY2F0b3JEb3RzIjp0cnVlLCJzaG93RHluYW1pY1N0YXRlT25seSI6ZmFsc2UsInZpZXdwb3J0RnJhY3Rpb24iOjEsInNsaWRlU3BhY2luZyI6MCwic2xpZGVJbWdCb3JkZXJSYWRpdXMiOjAsImR5bmFtaWNTdGF0ZUR1cmF0aW9uIjo1LCJsYXp5TG9hZFNwaW5uZXJDb2xvciI6IiMxRDRCOEYiLCJpbmRpY2F0b3JEb3RTaXplIjo4LCJpbmRpY2F0b3JEb3RDb2xvciI6IiMxRDRCOEYiLCJlbmxhcmdlRmFjdG9yIjoxZS0xMCwiZW5sYXJnZUNlbnRlckl0ZW0iOnRydWUsInNob3dWaWRlb0NvbnRyb2xzIjp0cnVlLCJhdXRvc3RhcnQiOnRydWV9</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760080653_140_e2d53d38.png</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>iframe,large,ad_host/path,ad_word,wide_ratio</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/e0118a9c-8eb3-4dbd-8adb-661ecb6eccd7?config=eyJvZmZzZXQiOjgsImFzcGVjdFJhdGlvIjoiYXV0byIsImxheW91dCI6ImNhcm91c2VsIiwibG9hZE1vZGUiOiJsYXp5IiwidmVydGljYWxTbGlkZXNUb1Nob3ciOjMsInNob3dJbmRpY2F0b3JEb3RzIjp0cnVlLCJzaG93RHluYW1pY1N0YXRlT25seSI6ZmFsc2UsInZpZXdwb3J0RnJhY3Rpb24iOjEsInNsaWRlU3BhY2luZyI6MCwic2xpZGVJbWdCb3JkZXJSYWRpdXMiOjAsImR5bmFtaWNTdGF0ZUR1cmF0aW9uIjo1LCJsYXp5TG9hZFNwaW5uZXJDb2xvciI6IiMxRDRCOEYiLCJpbmRpY2F0b3JEb3RTaXplIjo4LCJpbmRpY2F0b3JEb3RDb2xvciI6IiMxRDRCOEYiLCJlbmxhcmdlRmFjdG9yIjoxZS0xMCwiZW5sYXJnZUNlbnRlckl0ZW0iOnRydWUsInNob3dWaWRlb0NvbnRyb2xzIjp0cnVlLCJhdXRvc3RhcnQiOnRydWV9</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760080654_155_b1382d91.png</t>
-  </si>
-  <si>
-    <t>caak.mn</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>large,external_click</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBM3hFQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--e11378bd567468b48585649a5262a9ca87dcba0b/1900%20300%20caak,%20caaknews.png</t>
-  </si>
-  <si>
-    <t>https://golomtbank.com/news/48459</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\caak_1760080740_0_2ff69028.png</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBelJiQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--359458763e484d9494057d01d3c8edd16cd25919/khanbank%20a2-10..jpg</t>
-  </si>
-  <si>
-    <t>https://www.khanbank.com/personal/news/intelligence/7719/</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\caak_1760080773_1_f46916e8.png</t>
-  </si>
-  <si>
-    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/53d875ae-f203-4559-b5e2-80c8f62f3a75/68e8b3a21ab3b74ec942173b_compressed.webp</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760081327_26_740be652.png</t>
-  </si>
-  <si>
-    <t>ikon.mn</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>banner_note,large,external_click</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/10/9/18289/1.1_Pop-up_976x350.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/gnextmongolia</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\ikon_1760082316_1_3db16f02.png</t>
-  </si>
-  <si>
-    <t>large,ad_host/path,ad_word</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/dyson-bpo3-banner-1-1-250x156.jpg</t>
-  </si>
-  <si>
-    <t>https://news.mn/r/2827758/</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\news_1760085318_18_0b213f87.png</t>
-  </si>
-  <si>
-    <t>lemonpress.mn</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>iframe,large,ad_host/path,external_click,ad_word</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/fdfc95aa-90ae-4871-a1b1-0428fdd37f0e</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760087886_0_f3725195.png</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/0b4c7ee7-ef27-4cef-b10a-79eb0f307153</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760087886_1_11f86d75.png</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/ab348d23-3f49-4894-a4d5-d3f741b8e361</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760087886_3_f6335426.png</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/625702c6-8bde-4f7f-b3c3-5fc92c5f5f99</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760087886_4_50b5be95.png</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/b2e2476b-0ff2-43df-8a08-38ba92630379?config=eyJvZmZzZXQiOjMsImFzcGVjdFJhdGlvIjoiYXV0byIsImxheW91dCI6ImNhcm91c2VsIiwibG9hZE1vZGUiOiJsYXp5IiwidmVydGljYWxTbGlkZXNUb1Nob3ciOjMsInNob3dJbmRpY2F0b3JEb3RzIjp0cnVlLCJzaG93RHluYW1pY1N0YXRlT25seSI6ZmFsc2UsInZpZXdwb3J0RnJhY3Rpb24iOjEsInNsaWRlU3BhY2luZyI6MCwic2xpZGVJbWdCb3JkZXJSYWRpdXMiOjAsImR5bmFtaWNTdGF0ZUR1cmF0aW9uIjo1LCJsYXp5TG9hZFNwaW5uZXJDb2xvciI6IiMxRDRCOEYiLCJpbmRpY2F0b3JEb3RTaXplIjo4LCJpbmRpY2F0b3JEb3RDb2xvciI6IiMxRDRCOEYiLCJlbmxhcmdlRmFjdG9yIjoxZS0xMCwiZW5sYXJnZUNlbnRlckl0ZW0iOnRydWUsInNob3dWaWRlb0NvbnRyb2xzIjp0cnVlLCJhdXRvc3RhcnQiOnRydWV9</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\gogo_1760089590_259_27bdb04b.png</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>https://exchange.boost.mn/ad/web/0538cc0c-08dd-4b5e-8d1c-632ef1c3355d</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\lemonpress_1760089668_2_a8f35df3.png</t>
-  </si>
-  <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/files/37/175928855113.jpg</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/pub/jump?t=472fbe2449e91fb37c63355df8e357c2</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\bolortoli_1760090828_0_9ca83f2f.png</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/files/37/175980747313.png</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/pub/jump?t=a6285c5d1e1d47e519dc9bde294ce12b</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-10\bolortoli_1760090836_0_1837003e.png</t>
-  </si>
-  <si>
-    <t>bolor</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/files/37/176027585813.png</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/pub/jump?t=deb76b39de55a70335c1cd582136748c</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-13\bolortoli_1760314005_0_36ff83dc.png</t>
-  </si>
-  <si>
-    <t>zangia</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/10/7/18272/IMG_2801.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.zangia.mn/</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-13\ikon_1760326755_1_146d200e.png</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>large,std_size,ad_host/path,ad_word</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/News.mn-banner--scaled.jpg</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-13\news_1760326750_5_3d36b27e.png</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/9/30/18261/560_400__2_.png</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-13\ikon_1760328045_1_142570a2.png</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/10/6/18271/IMG_2795.jpeg</t>
-  </si>
-  <si>
-    <t>C:\Scraper\banner_screenshots\2025-10-13\ikon_1760328055_2_b2132167.png</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/10/13/18295/ikon_1360.200.png</t>
-  </si>
-  <si>
-    <t>https://zero.mn/film/9344</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-13\ikon_1760344159_1_40750436.png</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/News.mn-banner-1-1-250x156.jpg</t>
-  </si>
-  <si>
-    <t>https://news.mn/r/2828099/</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-13\news_1760344153_10_40054faf.png</t>
-  </si>
-  <si>
-    <t>univision</t>
-  </si>
-  <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNnhkQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--8b45fca71b3b8335e3a31eb643016f9f24a4c427/07.jpg</t>
-  </si>
-  <si>
-    <t>https://univision.mn/promotion/980</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-14\caak_1760409633_1_4f5f05d1.png</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/976d98c9-7e04-4d5a-a670-c993e6ed60a2/68c7c5c75354a679a0e142f5_compressed.webp</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-15\gogo_1760526734_26_29dfac90.png</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNjVkQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--a642daa4c27bb3488d58f7f5888858878a77eb95/06.jpg</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-15\caak_1760527007_0_e5b05dac.png</t>
-  </si>
-  <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/10/16/18305/ikon_35.png</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-17\ikon_1760672876_1_769a9a75.png</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/FB-cover-banner-___-250x156.png</t>
-  </si>
-  <si>
-    <t>https://news.mn/r/2829024/</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-17\news_1760672859_17_edbfa711.png</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/news-35th.png</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-17\news_1760672894_22_5adbd938.png</t>
-  </si>
-  <si>
-    <t>unitel</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBMUJnQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--372d47710d5424b22790ba532e79278cb8820a38/caak%201900x300.png</t>
-  </si>
-  <si>
-    <t>https://www.unitel.mn/unitel/promotion/987</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-17\caak_1760672947_0_8a26fc62.png</t>
-  </si>
-  <si>
-    <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/f8bbae5a-2843-4494-b829-9c8bc67e8208/68f5a7daf10b6ad7a7cc6989_compressed.webp</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-20\gogo_1760953886_26_f6d4453f.png</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNlYyQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--874b714b0d974c78d6bef3a81fa4e9e03f2251ac/looktv%20a1%2010%20sar.jpg</t>
-  </si>
-  <si>
-    <t>http://facebook.com/reel/2053151908835475</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\scraper\banner_screenshots\2025-10-20\caak_1760953975_0_e49a87fd.png</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/files/37/176101706813.jpg</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/pub/jump?t=b9619fe07489de6d9a73d897ec39856a</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-21\bolortoli_1761019795_0_cc6f2fd0.png</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBN3BkQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--139bc396ae2a75d431f6ae47a64b02430cb290f9/00.jpg</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-21\caak_1761019853_1_4e1feaa8.png</t>
-  </si>
-  <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/10/22/18328/unnamed.png</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-22\ikon_1761120477_2_ca2b2099.png</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNnFQQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--3769282f3690acf0f7fdfc7c98dabff730a3e50c/banner.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/reel/817306938137351</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-27\caak_1761532006_1_26a5d085.png</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/10/23/18329/1._Ikon_560x400.jpg</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-27\ikon_1761545294_2_2df32304.png</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBeWFQQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--bf6db297535f2a010896ac974ced3cda119e2573/khanbank%20a2%2010sars.jpg</t>
-  </si>
-  <si>
-    <t>https://www.khanbank.com/personal/news/intelligence/7775/</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-10-27\caak_1761545398_2_a0002d05.png</t>
-  </si>
-  <si>
-    <t>ly</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/11/4/18379/560_400__1_.jpg</t>
-  </si>
-  <si>
-    <t>https://bit.ly/tdb-MA2025?fbclid=IwZXh0bgNhZW0CMTAAYnJpZBExZG02Z2xxQUxYR3RSUE5KTAEer-uqbDGwYkFvy8Q08Nj6UxoEgvj2_Q53jpCO5t2osfGSTgbLHZfATIf75-c_aem_xX-j49AXTAqDC-6lnrycwA</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\ikon_1762229148_1_35f79b2d.png</t>
-  </si>
-  <si>
-    <t>https://content.ikon.mn/raw/2025/10/30/18346/Ikon.mn_280x200__5__copy.png</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\ikon_1762229157_2_2b8e99e4.png</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/IMG_6324-scaled.jpeg</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\news_1762229141_5_167ecfe9.png</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/10/News.mn-300x245-1.png</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\news_1762229173_20_767f822f.png</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/files/37/176187722513.png</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/pub/jump?t=d91f9cfe9003d2e218bb1ea8463b72ae</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-04\bolortoli_1762229206_0_dc08ebf8.png</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>large,external_click,ad_word</t>
-  </si>
-  <si>
-    <t>https://news.mn/wp-content/uploads/2025/11/300.jpg</t>
-  </si>
-  <si>
-    <t>https://www.golomtbank.com/news/50915</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-05\news_1762339164_12_63744233.png</t>
-  </si>
-  <si>
-    <t>looktv</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBN05jQlE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--bb454c51b42d9dd027e88c70bb0498f1520aa85c/caak.mn.jpg</t>
-  </si>
-  <si>
-    <t>https://looktv.mn/</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-08\caak_1762608737_0_bc800b17.png</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/files/37/176274226013.png</t>
-  </si>
-  <si>
-    <t>https://banner.bolor.net/pub/jump?t=eb8cb59a1bce5f6876df446e41dc5d77</t>
-  </si>
-  <si>
-    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-10\bolortoli_1762742783_0_1c65920c.png</t>
-  </si>
-  <si>
     <t>banner_note,large,ad_host/path,external_click</t>
   </si>
   <si>
@@ -770,6 +779,66 @@
   </si>
   <si>
     <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-11\ikon_1762849580_1_483b7664.png</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/11/11/18439/Sport_app_ikon_banner_1360x200_2.jpg</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-12\ikon_1762926411_1_649361d9.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/176284355413.jpg</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=b81c95dd8b367c381d8c29d6410e742e</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-12\bolortoli_1762926459_0_4488d123.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/176292024913.jpg</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=c047d3b2376c04dd8557f90dd9c9aa0b</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-12\bolortoli_1762926498_0_fa84a932.png</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/11/12/18446/IKON__2___1_.jpg</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-14\ikon_1763092254_2_77abb1bd.png</t>
+  </si>
+  <si>
+    <t>urgoo</t>
+  </si>
+  <si>
+    <t>https://content.ikon.mn/raw/2025/11/12/18443/Banner560x400.jpg</t>
+  </si>
+  <si>
+    <t>https://ticketing.urgoo.mn/movie/HO00001798</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-14\ikon_1763092262_1_8943e5e1.png</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/files/37/176291265613.jpg</t>
+  </si>
+  <si>
+    <t>https://banner.bolor.net/pub/jump?t=8dfb70bbb381ec62e7d15fc7f6b2366c</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-14\bolortoli_1763092300_1_988754e7.png</t>
+  </si>
+  <si>
+    <t>https://graph.caak.mn/rails/active_storage/blobs/redirect/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBOGNVQmc9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--6b41fbc802df36b903e5e8d2d6694183be0df913/caaak%20(2).jpg</t>
+  </si>
+  <si>
+    <t>https://www.khanbank.com/personal/news/intelligence/7820/</t>
+  </si>
+  <si>
+    <t>C:\UNITEL_Website\Scraper\banner_screenshots\2025-11-14\caak_1763092500_0_823be403.png</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1484,19 +1553,19 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -1505,19 +1574,19 @@
         <v>33</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>27</v>
@@ -1525,10 +1594,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1543,28 +1612,28 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>27</v>
@@ -1572,10 +1641,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1584,34 +1653,34 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>27</v>
@@ -1619,10 +1688,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1631,34 +1700,34 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>27</v>
@@ -1666,10 +1735,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1690,22 +1759,22 @@
         <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>27</v>
@@ -1713,10 +1782,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1731,28 +1800,28 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>27</v>
@@ -1760,10 +1829,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1778,28 +1847,28 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>27</v>
@@ -1807,7 +1876,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -1822,31 +1891,31 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>27</v>
@@ -1854,7 +1923,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -1866,34 +1935,34 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>27</v>
@@ -1901,10 +1970,10 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1925,22 +1994,22 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>27</v>
@@ -1948,7 +2017,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1960,7 +2029,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -1969,22 +2038,22 @@
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>27</v>
@@ -2007,31 +2076,31 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>27</v>
@@ -2039,10 +2108,10 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -2054,7 +2123,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2063,22 +2132,22 @@
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>27</v>
@@ -2086,10 +2155,10 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -2101,31 +2170,31 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>27</v>
@@ -2133,10 +2202,10 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -2148,31 +2217,31 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>27</v>
@@ -2180,10 +2249,10 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -2195,31 +2264,31 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>27</v>
@@ -2227,10 +2296,10 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2245,28 +2314,28 @@
         <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>27</v>
@@ -2274,10 +2343,10 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -2289,16 +2358,16 @@
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>138</v>
@@ -2321,10 +2390,10 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -2339,28 +2408,28 @@
         <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>27</v>
@@ -2368,10 +2437,10 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2380,34 +2449,34 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>27</v>
@@ -2415,10 +2484,10 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -2427,34 +2496,34 @@
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>27</v>
@@ -2462,10 +2531,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -2474,10 +2543,10 @@
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -2486,22 +2555,22 @@
         <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>27</v>
@@ -2512,7 +2581,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -2527,19 +2596,19 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>60</v>
@@ -2548,7 +2617,7 @@
         <v>60</v>
       </c>
       <c r="N30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>27</v>
@@ -2556,10 +2625,10 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -2571,31 +2640,31 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H31" t="s">
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>27</v>
@@ -2603,10 +2672,10 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2615,10 +2684,10 @@
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
@@ -2627,22 +2696,22 @@
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>27</v>
@@ -2650,10 +2719,10 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -2665,31 +2734,31 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>27</v>
@@ -2700,7 +2769,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -2712,31 +2781,31 @@
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>27</v>
@@ -2744,19 +2813,19 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -2765,25 +2834,25 @@
         <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>27</v>
@@ -2791,19 +2860,19 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s">
         <v>32</v>
@@ -2815,22 +2884,22 @@
         <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>27</v>
@@ -2838,16 +2907,16 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
         <v>140</v>
@@ -2859,25 +2928,25 @@
         <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>27</v>
@@ -2885,7 +2954,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -2894,13 +2963,13 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -2909,13 +2978,13 @@
         <v>57</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>53</v>
@@ -2924,7 +2993,7 @@
         <v>53</v>
       </c>
       <c r="N38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>27</v>
@@ -2935,43 +3004,43 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>27</v>
@@ -2982,13 +3051,13 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
@@ -3006,10 +3075,10 @@
         <v>58</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>60</v>
@@ -3018,7 +3087,7 @@
         <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>27</v>
@@ -3026,46 +3095,46 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>27</v>
@@ -3073,10 +3142,10 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -3085,34 +3154,34 @@
         <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
         <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>27</v>
@@ -3120,7 +3189,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -3132,34 +3201,34 @@
         <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I43" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>27</v>
@@ -3167,46 +3236,46 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>27</v>
@@ -3214,46 +3283,46 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>27</v>
@@ -3261,7 +3330,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -3270,13 +3339,13 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
         <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G46" t="s">
         <v>57</v>
@@ -3285,13 +3354,13 @@
         <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>53</v>
@@ -3300,7 +3369,7 @@
         <v>53</v>
       </c>
       <c r="N46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>27</v>
@@ -3308,7 +3377,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -3323,7 +3392,7 @@
         <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -3332,22 +3401,22 @@
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>27</v>
@@ -3355,10 +3424,10 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -3370,31 +3439,31 @@
         <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H48" t="s">
         <v>57</v>
       </c>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>27</v>
@@ -3402,46 +3471,46 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>27</v>
@@ -3449,46 +3518,46 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
         <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="H50" t="s">
         <v>57</v>
       </c>
       <c r="I50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>27</v>
@@ -3496,46 +3565,46 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F51" t="s">
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H51" t="s">
         <v>57</v>
       </c>
       <c r="I51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="N51" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>27</v>
@@ -3546,22 +3615,22 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E52" t="s">
         <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="H52" t="s">
         <v>57</v>
@@ -3570,10 +3639,10 @@
         <v>58</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>60</v>
@@ -3582,7 +3651,7 @@
         <v>60</v>
       </c>
       <c r="N52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>27</v>
@@ -3593,22 +3662,22 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E53" t="s">
         <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
@@ -3617,19 +3686,19 @@
         <v>33</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>27</v>
@@ -3637,46 +3706,46 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>27</v>
@@ -3693,37 +3762,37 @@
         <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
         <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="H55" t="s">
         <v>57</v>
       </c>
       <c r="I55" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>27</v>
@@ -3731,46 +3800,46 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E56" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>27</v>
@@ -3778,46 +3847,46 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
         <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N57" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>27</v>
@@ -3825,48 +3894,377 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58" t="s">
+        <v>251</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N58" t="s">
+        <v>254</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
         <v>38</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" t="s">
         <v>39</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" t="s">
+        <v>251</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N59" t="s">
+        <v>256</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N60" t="s">
+        <v>259</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" t="s">
         <v>39</v>
       </c>
-      <c r="F58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G58" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" t="s">
-        <v>248</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N61" t="s">
+        <v>262</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>116</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N62" t="s">
+        <v>264</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I63" t="s">
         <v>251</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="J63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N63" t="s">
+        <v>268</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" t="s">
+        <v>115</v>
+      </c>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N64" t="s">
+        <v>271</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="N65" t="s">
+        <v>274</v>
+      </c>
+      <c r="O65" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4157,6 +4555,41 @@
     <hyperlink ref="L58" r:id="rId283"/>
     <hyperlink ref="M58" r:id="rId284"/>
     <hyperlink ref="O58" r:id="rId285"/>
+    <hyperlink ref="J59" r:id="rId286"/>
+    <hyperlink ref="K59" r:id="rId287"/>
+    <hyperlink ref="L59" r:id="rId288"/>
+    <hyperlink ref="M59" r:id="rId289"/>
+    <hyperlink ref="O59" r:id="rId290"/>
+    <hyperlink ref="J60" r:id="rId291"/>
+    <hyperlink ref="K60" r:id="rId292"/>
+    <hyperlink ref="L60" r:id="rId293"/>
+    <hyperlink ref="M60" r:id="rId294"/>
+    <hyperlink ref="O60" r:id="rId295"/>
+    <hyperlink ref="J61" r:id="rId296"/>
+    <hyperlink ref="K61" r:id="rId297"/>
+    <hyperlink ref="L61" r:id="rId298"/>
+    <hyperlink ref="M61" r:id="rId299"/>
+    <hyperlink ref="O61" r:id="rId300"/>
+    <hyperlink ref="J62" r:id="rId301"/>
+    <hyperlink ref="K62" r:id="rId302"/>
+    <hyperlink ref="L62" r:id="rId303"/>
+    <hyperlink ref="M62" r:id="rId304"/>
+    <hyperlink ref="O62" r:id="rId305"/>
+    <hyperlink ref="J63" r:id="rId306"/>
+    <hyperlink ref="K63" r:id="rId307"/>
+    <hyperlink ref="L63" r:id="rId308"/>
+    <hyperlink ref="M63" r:id="rId309"/>
+    <hyperlink ref="O63" r:id="rId310"/>
+    <hyperlink ref="J64" r:id="rId311"/>
+    <hyperlink ref="K64" r:id="rId312"/>
+    <hyperlink ref="L64" r:id="rId313"/>
+    <hyperlink ref="M64" r:id="rId314"/>
+    <hyperlink ref="O64" r:id="rId315"/>
+    <hyperlink ref="J65" r:id="rId316"/>
+    <hyperlink ref="K65" r:id="rId317"/>
+    <hyperlink ref="L65" r:id="rId318"/>
+    <hyperlink ref="M65" r:id="rId319"/>
+    <hyperlink ref="O65" r:id="rId320"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
